--- a/binaries/FCfiles/ManageProfile.xlsx
+++ b/binaries/FCfiles/ManageProfile.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6C918C0E-4288-4EF4-A4FF-FCED09661544}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129075DF-7631-457D-8CDB-212358053D34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{FF125F1C-9927-44E3-BE4C-8ED054D4B06E}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF125F1C-9927-44E3-BE4C-8ED054D4B06E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ProfileName</t>
   </si>
@@ -79,12 +79,17 @@
     <t>Watkins &amp; Shepard,UPS,Pilot Freight Services
 [Standard],Estes Express Lines,Ceva,ABF Freight,</t>
   </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>BTX Global Logistics, Ceva,ABF Freight,FC Test Carrier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +112,26 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="9"/>
       </patternFill>
@@ -116,218 +141,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -350,207 +165,48 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="8" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="12" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="16" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="18" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="20" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="22" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="24" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="26" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="28" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="30" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="32" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="34" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="38" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="42" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="44" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="46" xfId="0" applyFill="true" applyBorder="true"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -567,10 +223,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -605,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -657,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -768,21 +424,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -799,7 +455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -851,83 +507,95 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD9995-1262-4966-B1D7-3DBBD0C8F0DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD9995-1262-4966-B1D7-3DBBD0C8F0DE}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="141.5546875" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="140.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageProfile.xlsx
+++ b/binaries/FCfiles/ManageProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129075DF-7631-457D-8CDB-212358053D34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51401A-E7B2-49DF-9933-5A100C18BA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF125F1C-9927-44E3-BE4C-8ED054D4B06E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Carrier</t>
   </si>
   <si>
-    <t>BTX Global Logistics, Ceva,ABF Freight,FC Test Carrier</t>
+    <t>ABF Freight, BTX Global Logistics, Ceva,FC Test Carrier, Ups</t>
   </si>
 </sst>
 </file>

--- a/binaries/FCfiles/ManageProfile.xlsx
+++ b/binaries/FCfiles/ManageProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51401A-E7B2-49DF-9933-5A100C18BA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02425D8E-47AF-4580-B9B8-85DDCB65058D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FF125F1C-9927-44E3-BE4C-8ED054D4B06E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Carrier</t>
   </si>
   <si>
-    <t>ABF Freight, BTX Global Logistics, Ceva,FC Test Carrier, Ups</t>
+    <t>ABF Freight, BTX Global Logistics, Ceva,FC Test Carrier, UPS</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
